--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3226428.15718636</v>
+        <v>3330607.791637432</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>58.99818337218041</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>175.9033742411868</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.1592673228016</v>
+        <v>248.4179611358951</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>218.951446204043</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>299.9649652251606</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>35.19569619650093</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>49.26915514711661</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1139,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>155.4327576745226</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.74121858533989</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>84.6947366044282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>74.57669126402504</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>19.91555826189102</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1898,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994143001</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>147.0792452528027</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>21.69718571885186</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>84.90358457993578</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>249.1295239142487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3736250957651</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>99.76859704213658</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>26.80026191613583</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>112.5005260950205</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6969570046982</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>94.56071137692132</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>23.08134457786469</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>90.85912858529827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.124011696101</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>994.1614947556898</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736035</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760223</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1931.789305875497</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C4" t="n">
-        <v>1762.85312294759</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D4" t="n">
-        <v>1612.736483535254</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952861</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>3106.321558990131</v>
+        <v>1394.850973202246</v>
       </c>
       <c r="V4" t="n">
-        <v>2851.637070784244</v>
+        <v>1140.166484996359</v>
       </c>
       <c r="W4" t="n">
-        <v>2562.219900747284</v>
+        <v>1140.166484996359</v>
       </c>
       <c r="X4" t="n">
-        <v>2334.230349849267</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="Y4" t="n">
-        <v>2113.437770705737</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2740.621599436322</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.155841175242</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1685.841840534393</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1396.738973660037</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.05448545415</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>852.637315417189</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>624.6477645191717</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3058.312367606444</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>3058.312367606444</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2705.54371233633</v>
       </c>
       <c r="X8" t="n">
-        <v>2766.859418723279</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4877,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.0623554265553</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C10" t="n">
-        <v>152.0623554265553</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +5001,13 @@
         <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>996.5801291595203</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>996.5801291595203</v>
       </c>
       <c r="Y10" t="n">
-        <v>333.710820256795</v>
+        <v>775.7875500159902</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5063,22 +5065,22 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5278,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>113.9333885650335</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>3112.537432147379</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>2943.601249219472</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>3850.736732225887</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>3561.319562188926</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>3333.330011290909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>3112.537432147379</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C25" t="n">
-        <v>2646.594662309226</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309226</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309226</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6248,7 +6250,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492579</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3023.484406741616</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>3425.925450715386</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>3425.925450715386</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>3205.132871571856</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6445,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909563</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>482.6390612909563</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6390612909563</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6692,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2419.8921119478</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.037277602705</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2017.435812625646</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1728.360585969844</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1473.676097763957</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>3161.37108304703</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>2992.434900119124</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>2842.318260706788</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>3343.01954787727</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C40" t="n">
-        <v>2654.99947056376</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D40" t="n">
-        <v>2504.882831151424</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E40" t="n">
-        <v>2504.882831151424</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>2504.882831151424</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
         <v>2337.686731866304</v>
@@ -7360,22 +7362,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3026.711098656041</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656041</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4528.271578573296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4308.670113596238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4019.594886940436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3764.910398734549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>3475.493228697588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>3247.503677799571</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>3026.711098656041</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,55 +7639,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591808</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2297.690135143765</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="D46" t="n">
-        <v>415.5933575433587</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>267.6802639609656</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>267.6802639609656</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>173.4237883572461</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>105.0583980710253</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>264.8258126177391</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>94.92839560200152</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>37.39347442234231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>2.150513196503709</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>186.7544012944544</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.57498479398582</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>33.93343655154865</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.54986409392961</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>86.46557462472327</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>125.5341284403477</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>74.66500970697058</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717394</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717394</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
@@ -26326,13 +26328,13 @@
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
@@ -26341,19 +26343,19 @@
         <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,22 +26432,22 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181807</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26454,10 +26456,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483643002</v>
+        <v>-789315.0483643</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632927</v>
+        <v>539429.6973632923</v>
       </c>
       <c r="D6" t="n">
         <v>539429.6973632926</v>
       </c>
       <c r="E6" t="n">
-        <v>287510.0279079246</v>
+        <v>287510.0279079243</v>
       </c>
       <c r="F6" t="n">
+        <v>612922.4897152802</v>
+      </c>
+      <c r="G6" t="n">
+        <v>612922.4897152804</v>
+      </c>
+      <c r="H6" t="n">
+        <v>612922.4897152804</v>
+      </c>
+      <c r="I6" t="n">
         <v>612922.48971528</v>
       </c>
-      <c r="G6" t="n">
-        <v>612922.48971528</v>
-      </c>
-      <c r="H6" t="n">
-        <v>612922.48971528</v>
-      </c>
-      <c r="I6" t="n">
-        <v>612922.4897152802</v>
-      </c>
       <c r="J6" t="n">
-        <v>395391.2873180027</v>
+        <v>395391.2873180025</v>
       </c>
       <c r="K6" t="n">
         <v>612922.48971528</v>
       </c>
       <c r="L6" t="n">
-        <v>612922.48971528</v>
+        <v>612922.4897152798</v>
       </c>
       <c r="M6" t="n">
         <v>527867.4617797682</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.48971528</v>
+        <v>612922.4897152802</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.48971528</v>
+        <v>612922.4897152807</v>
       </c>
       <c r="P6" t="n">
         <v>612922.4897152801</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>295.6848582485026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.9726715005247</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0525708828113</v>
+        <v>37.79387706971781</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>130.28952251337</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>69.76613545330844</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>111.2382664500682</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>170.2797941290526</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>95.56241428437937</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.4967200707137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>63.92073641378416</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>211.946307072566</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29800,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>386.7287743289961</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33506,31 +33508,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>429.5828357723605</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>360.9226811202611</v>
+        <v>301.9817606876396</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>244.1325298845517</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>393.2623022991504</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6084283580303</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>220.9409070342396</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3330607.791637432</v>
+        <v>3326595.18162344</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>175.9033742411868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>94.8127598026153</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>248.4179611358951</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>250.1897979383819</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>299.9649652251606</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>35.19569619650093</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.0822873069264</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>38.93487362168427</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>155.4327576745226</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>74.57669126402504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.16086499484926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701354</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W19" t="n">
-        <v>113.0992099793449</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>147.0792452528027</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>21.69718571885186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.90358457993578</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>99.76859704213658</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.80026191613583</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>112.5005260950205</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>176.76214411214</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3954,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.08134457786469</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796261</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392144</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392144</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>552.8079389392144</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4372,10 +4372,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.7358901245717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>509.7358901245717</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1394.850973202246</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.166484996359</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1140.166484996359</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>912.1769340983416</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>691.3843549548114</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4609,10 +4609,10 @@
         <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697682</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697682</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.9995076393842</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>102.0633247114773</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>102.0633247114773</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1644.451679424883</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696239</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1600.460626751968</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1242.194928145218</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>856.4066755469735</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>445.4207707573659</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3058.312367606444</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3058.312367606444</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2705.54371233633</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X8" t="n">
-        <v>2332.07795407525</v>
+        <v>2746.162315732313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W10" t="n">
-        <v>996.5801291595203</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>996.5801291595203</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.7875500159902</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5193,58 +5193,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,16 +5551,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1319.459739407057</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5740,37 +5740,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3112.537432147379</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2943.601249219472</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3850.736732225887</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3561.319562188926</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3333.330011290909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3112.537432147379</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000197</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102179</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6724,10 +6724,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532263</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2419.8921119478</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2237.037277602705</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2017.435812625646</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1728.360585969844</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1473.676097763957</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1184.258927726996</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.258927726996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.466348583466</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3161.37108304703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2992.434900119124</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2842.318260706788</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3343.01954787727</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>4262.384993990607</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.384993990607</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953646</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3046.798896214207</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5487903941879</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W19" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>105.0583980710253</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>264.8258126177391</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.92839560200152</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>186.7544012944544</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.57498479398582</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>33.93343655154865</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>109.4223302771041</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5341284403477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.592877856</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
@@ -26331,19 +26331,19 @@
         <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
@@ -26352,10 +26352,10 @@
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316939</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316945</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,13 +26441,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483643</v>
+        <v>-789315.0483642996</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632923</v>
+        <v>539429.6973632927</v>
       </c>
       <c r="D6" t="n">
         <v>539429.6973632926</v>
       </c>
       <c r="E6" t="n">
-        <v>287510.0279079243</v>
+        <v>287162.6486535679</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609231</v>
       </c>
       <c r="G6" t="n">
-        <v>612922.4897152804</v>
+        <v>612575.1104609234</v>
       </c>
       <c r="H6" t="n">
-        <v>612922.4897152804</v>
+        <v>612575.1104609231</v>
       </c>
       <c r="I6" t="n">
-        <v>612922.48971528</v>
+        <v>612575.1104609231</v>
       </c>
       <c r="J6" t="n">
-        <v>395391.2873180025</v>
+        <v>395043.9080636456</v>
       </c>
       <c r="K6" t="n">
-        <v>612922.48971528</v>
+        <v>612575.1104609233</v>
       </c>
       <c r="L6" t="n">
-        <v>612922.4897152798</v>
+        <v>612575.1104609234</v>
       </c>
       <c r="M6" t="n">
-        <v>527867.4617797682</v>
+        <v>527520.0825254114</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609233</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.4897152807</v>
+        <v>612575.1104609232</v>
       </c>
       <c r="P6" t="n">
-        <v>612922.4897152801</v>
+        <v>612575.1104609228</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26795,10 +26795,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>230.9726715005247</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>291.4251788534383</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>37.79387706971781</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>104.493243682301</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>69.76613545330844</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>111.2382664500682</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.05535601690158</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>371.9868520317692</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>95.56241428437937</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.946307072566</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.097362201107899e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>574.6535388222619</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>386.7287743289961</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32575,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33268,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>432.0572943778175</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>244.1325298845517</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36223,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3326595.18162344</v>
+        <v>3328355.711926227</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>74.322627841559</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>94.8127598026153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8320148671115</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>250.1897979383819</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>191.0822873069264</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>38.93487362168427</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145761</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>72.89138480951671</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.5419779170882</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514675</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>789.0659616987011</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>970.7144265289409</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.65619074133</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1870.65619074133</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805452</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1644.451679424883</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.034509387922</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.044958489905</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751968</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1242.194928145218</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>856.4066755469735</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>445.4207707573659</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732313</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1853.666886664739</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1598.982398458852</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.565228421891</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.575677523874</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.7830983803434</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>369.6410228554032</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>202.4449235702832</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,16 +5828,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6414,22 +6414,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6457,52 +6457,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.7527349291357</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>284.9289028870763</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26444,7 +26444,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483642996</v>
+        <v>-789315.0483642993</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632927</v>
+        <v>539429.6973632929</v>
       </c>
       <c r="D6" t="n">
-        <v>539429.6973632926</v>
+        <v>539429.6973632924</v>
       </c>
       <c r="E6" t="n">
-        <v>287162.6486535679</v>
+        <v>287475.2899824889</v>
       </c>
       <c r="F6" t="n">
-        <v>612575.1104609231</v>
+        <v>612887.7517898442</v>
       </c>
       <c r="G6" t="n">
-        <v>612575.1104609234</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="H6" t="n">
-        <v>612575.1104609231</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="I6" t="n">
-        <v>612575.1104609231</v>
+        <v>612887.7517898447</v>
       </c>
       <c r="J6" t="n">
-        <v>395043.9080636456</v>
+        <v>395356.5493925668</v>
       </c>
       <c r="K6" t="n">
-        <v>612575.1104609233</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="L6" t="n">
-        <v>612575.1104609234</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="M6" t="n">
-        <v>527520.0825254114</v>
+        <v>527832.7238543327</v>
       </c>
       <c r="N6" t="n">
-        <v>612575.1104609233</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="O6" t="n">
-        <v>612575.1104609232</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="P6" t="n">
-        <v>612575.1104609228</v>
+        <v>612887.7517898445</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>290.9502639294486</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>291.4251788534383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>58.41480623151635</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>104.493243682301</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>61.05535601690158</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>371.9868520317692</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414775</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>213.3204533960962</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.097362201107899e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N15" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,7 +32560,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
